--- a/public/downloads/contact-import-template.xlsx
+++ b/public/downloads/contact-import-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jevohngentry/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jevohngentry/Desktop/invictus/public/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A86EF8-B326-4C41-A4D2-1068A33CE92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725B9D8B-8474-9F48-BD27-4A7004FBC0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{1731E4F9-E7E9-F947-81CD-5F8F1E3655D2}"/>
+    <workbookView xWindow="4260" yWindow="2740" windowWidth="28040" windowHeight="17440" xr2:uid="{1731E4F9-E7E9-F947-81CD-5F8F1E3655D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Lead Advisor</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Marginal Tax Bracket %</t>
+  </si>
+  <si>
+    <t>Job / Employer</t>
+  </si>
+  <si>
+    <t>Retirement Date</t>
   </si>
 </sst>
 </file>
@@ -454,19 +460,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547B979A-557C-3543-A46F-634076EE80E8}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="12" width="15.83203125" customWidth="1"/>
     <col min="13" max="13" width="20.83203125" customWidth="1"/>
+    <col min="14" max="14" width="16.1640625" customWidth="1"/>
+    <col min="15" max="15" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -505,6 +513,12 @@
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/public/downloads/contact-import-template.xlsx
+++ b/public/downloads/contact-import-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jevohngentry/Desktop/invictus/public/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725B9D8B-8474-9F48-BD27-4A7004FBC0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5147022E-3D61-5549-AC46-08939C5400E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="2740" windowWidth="28040" windowHeight="17440" xr2:uid="{1731E4F9-E7E9-F947-81CD-5F8F1E3655D2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Lead Advisor</t>
   </si>
@@ -77,10 +77,13 @@
     <t>Marginal Tax Bracket %</t>
   </si>
   <si>
-    <t>Job / Employer</t>
-  </si>
-  <si>
     <t>Retirement Date</t>
+  </si>
+  <si>
+    <t>Ocupation</t>
+  </si>
+  <si>
+    <t>Employer</t>
   </si>
 </sst>
 </file>
@@ -460,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547B979A-557C-3543-A46F-634076EE80E8}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,9 +475,10 @@
     <col min="13" max="13" width="20.83203125" customWidth="1"/>
     <col min="14" max="14" width="16.1640625" customWidth="1"/>
     <col min="15" max="15" width="20.5" customWidth="1"/>
+    <col min="16" max="16" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -515,10 +519,13 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/public/downloads/contact-import-template.xlsx
+++ b/public/downloads/contact-import-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jevohngentry/Desktop/invictus/public/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5147022E-3D61-5549-AC46-08939C5400E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B97242-4F7D-174C-AAAD-46A87B9CBB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="2740" windowWidth="28040" windowHeight="17440" xr2:uid="{1731E4F9-E7E9-F947-81CD-5F8F1E3655D2}"/>
+    <workbookView xWindow="2060" yWindow="2740" windowWidth="28040" windowHeight="17440" xr2:uid="{1731E4F9-E7E9-F947-81CD-5F8F1E3655D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Lead Advisor</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Employer</t>
+  </si>
+  <si>
+    <t>Gender</t>
   </si>
 </sst>
 </file>
@@ -463,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547B979A-557C-3543-A46F-634076EE80E8}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,7 +481,7 @@
     <col min="16" max="16" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -492,39 +495,42 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/public/downloads/contact-import-template.xlsx
+++ b/public/downloads/contact-import-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jevohngentry/Desktop/invictus/public/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B97242-4F7D-174C-AAAD-46A87B9CBB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4888DB-8F21-6540-A867-80B68A593B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2060" yWindow="2740" windowWidth="28040" windowHeight="17440" xr2:uid="{1731E4F9-E7E9-F947-81CD-5F8F1E3655D2}"/>
   </bookViews>
@@ -56,21 +56,9 @@
     <t>Home Address</t>
   </si>
   <si>
-    <t>Living / Deceased</t>
-  </si>
-  <si>
     <t>Monthly Income</t>
   </si>
   <si>
-    <t>Household ID*</t>
-  </si>
-  <si>
-    <t>Client ID*</t>
-  </si>
-  <si>
-    <t>Client Name*</t>
-  </si>
-  <si>
     <t>Date of Birth</t>
   </si>
   <si>
@@ -80,13 +68,25 @@
     <t>Retirement Date</t>
   </si>
   <si>
-    <t>Ocupation</t>
-  </si>
-  <si>
     <t>Employer</t>
   </si>
   <si>
     <t>Gender</t>
+  </si>
+  <si>
+    <t>Household ID</t>
+  </si>
+  <si>
+    <t>Client ID</t>
+  </si>
+  <si>
+    <t>Client Name</t>
+  </si>
+  <si>
+    <t>Living/Deceased</t>
+  </si>
+  <si>
+    <t>Occupation</t>
   </si>
 </sst>
 </file>
@@ -468,37 +468,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547B979A-557C-3543-A46F-634076EE80E8}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="12" width="15.83203125" customWidth="1"/>
     <col min="13" max="13" width="20.83203125" customWidth="1"/>
-    <col min="14" max="14" width="16.1640625" customWidth="1"/>
+    <col min="14" max="14" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.5" customWidth="1"/>
     <col min="16" max="16" width="17.5" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -516,22 +517,22 @@
         <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
